--- a/test_data/mycobot_280.xlsx
+++ b/test_data/mycobot_280.xlsx
@@ -4,13 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
-    <sheet name="get_basic_version" sheetId="2" r:id="rId2"/>
-    <sheet name="get_angles" sheetId="3" r:id="rId3"/>
-    <sheet name="get_modify_version" sheetId="4" r:id="rId4"/>
+    <sheet name="get_modify_version" sheetId="4" r:id="rId1"/>
+    <sheet name="get_system_version" sheetId="1" r:id="rId2"/>
+    <sheet name="get_basic_version" sheetId="2" r:id="rId3"/>
+    <sheet name="get_error_information" sheetId="5" r:id="rId4"/>
+    <sheet name="clear_error_information" sheetId="6" r:id="rId5"/>
+    <sheet name="power_on" sheetId="7" r:id="rId6"/>
+    <sheet name="power_off" sheetId="8" r:id="rId7"/>
+    <sheet name="is_power_on" sheetId="9" r:id="rId8"/>
+    <sheet name="release_all_servos" sheetId="10" r:id="rId9"/>
+    <sheet name="focus_all_servos" sheetId="11" r:id="rId10"/>
+    <sheet name="set_free_mode" sheetId="12" r:id="rId11"/>
+    <sheet name="is_free_mode" sheetId="13" r:id="rId12"/>
+    <sheet name="set_fresh_mode" sheetId="14" r:id="rId13"/>
+    <sheet name="get_fresh_mode" sheetId="15" r:id="rId14"/>
+    <sheet name="get_angles" sheetId="3" r:id="rId15"/>
+    <sheet name="send_angle" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -50,37 +62,250 @@
     <t>test_type</t>
   </si>
   <si>
+    <t>正确获取固件modify版本号</t>
+  </si>
+  <si>
+    <t>get_modify_version</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>正确获取固件版本号</t>
   </si>
   <si>
     <t>get_system_version</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>正确获取固件basic版本号</t>
   </si>
   <si>
     <t>get_basic_version</t>
   </si>
   <si>
-    <t>target_angles</t>
+    <t>angles</t>
+  </si>
+  <si>
+    <t>获取机械臂报错信息（坐标超限）</t>
+  </si>
+  <si>
+    <t>get_error_information</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>获取机械臂报错信息（无报错）</t>
+  </si>
+  <si>
+    <t>[0,20,-90,-20,0,0]</t>
+  </si>
+  <si>
+    <t>正确清除机械臂报错信息</t>
+  </si>
+  <si>
+    <t>clear_error_information</t>
+  </si>
+  <si>
+    <t>is_power_on_status</t>
+  </si>
+  <si>
+    <t>move_status</t>
+  </si>
+  <si>
+    <t>机械臂下电情况上电,且是否能够运动</t>
+  </si>
+  <si>
+    <t>power_on</t>
+  </si>
+  <si>
+    <t>power_off</t>
+  </si>
+  <si>
+    <t>机械臂上电情况上电，且是否能够运动</t>
+  </si>
+  <si>
+    <t>机械臂下电情况下电,且是否能够运动</t>
+  </si>
+  <si>
+    <t>机械臂上电情况下电，且是否能够运动</t>
+  </si>
+  <si>
+    <t>查看机械臂上电状态下是否上电状态</t>
+  </si>
+  <si>
+    <t>查看机械臂下电状态下是否上电状态</t>
+  </si>
+  <si>
+    <t>正确放松所有关节</t>
+  </si>
+  <si>
+    <t>release_all_servos</t>
+  </si>
+  <si>
+    <t>正确锁紧所有关节</t>
+  </si>
+  <si>
+    <t>focus_all_servos</t>
+  </si>
+  <si>
+    <t>正确设置自由模式（1）</t>
+  </si>
+  <si>
+    <t>set_free_mode</t>
+  </si>
+  <si>
+    <t>正确设置自由模式（0）</t>
+  </si>
+  <si>
+    <t>设置自由模式超限</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>查看当前是否为自由模式（1）</t>
+  </si>
+  <si>
+    <t>is_free_mode</t>
+  </si>
+  <si>
+    <t>查看当前是否为自由模式（0）</t>
+  </si>
+  <si>
+    <t>正确设置运动模式（1）</t>
+  </si>
+  <si>
+    <t>set_fresh_mode</t>
+  </si>
+  <si>
+    <t>正确设置运动模式（0）</t>
+  </si>
+  <si>
+    <t>设置运动模式超限</t>
+  </si>
+  <si>
+    <t>查看当前是否为刷新模式</t>
+  </si>
+  <si>
+    <t>get_fresh_mode</t>
+  </si>
+  <si>
+    <t>查看当前是否为插补模式</t>
   </si>
   <si>
     <t>fresh_mode</t>
   </si>
   <si>
-    <t>正确获取机械臂角度</t>
+    <t>刷新模式下获取角度</t>
   </si>
   <si>
     <t>get_angles</t>
   </si>
   <si>
-    <t>正确获取固件modify版本号</t>
-  </si>
-  <si>
-    <t>get_modify_version</t>
+    <t>[20,20,20,20,20,20]</t>
+  </si>
+  <si>
+    <t>插补模式下获取角度</t>
+  </si>
+  <si>
+    <t>[10,30,20,10,20,20]</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>刷新模式下设置1关节正限位</t>
+  </si>
+  <si>
+    <t>send_angle</t>
+  </si>
+  <si>
+    <t>刷新模式下设置1关节负限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置2关节正限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置2关节负限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置3关节正限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置3关节负限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置4关节正限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置4关节负限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置5关节正限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置5关节负限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置6关节正限位</t>
+  </si>
+  <si>
+    <t>刷新模式下设置6关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置1关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置1关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置2关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置2关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置3关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置3关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置4关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置4关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置5关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置5关节负限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置6关节正限位</t>
+  </si>
+  <si>
+    <t>插补模式下设置6关节负限位</t>
+  </si>
+  <si>
+    <t>设置关节超限</t>
+  </si>
+  <si>
+    <t>设置角度超限</t>
+  </si>
+  <si>
+    <t>设置速度超限</t>
   </si>
 </sst>
 </file>
@@ -247,12 +472,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -573,7 +804,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,16 +828,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -615,109 +846,121 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1035,7 +1278,1527 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.775" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.775" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.775" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.775" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.775" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:9">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>168</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-168</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:9">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>135</v>
+      </c>
+      <c r="F4" s="6">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:9">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-135</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:9">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-150</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>145</v>
+      </c>
+      <c r="F8" s="6">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:9">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-145</v>
+      </c>
+      <c r="F9" s="3">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:9">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>165</v>
+      </c>
+      <c r="F10" s="6">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:9">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-165</v>
+      </c>
+      <c r="F11" s="3">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>180</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-180</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>168</v>
+      </c>
+      <c r="F14" s="6">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:9">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-168</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:9">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>135</v>
+      </c>
+      <c r="F16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:9">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-135</v>
+      </c>
+      <c r="F17" s="3">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="27" spans="1:9">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>150</v>
+      </c>
+      <c r="F18" s="6">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:9">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-150</v>
+      </c>
+      <c r="F19" s="3">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:9">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>145</v>
+      </c>
+      <c r="F20" s="6">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:9">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-145</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:9">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>165</v>
+      </c>
+      <c r="F22" s="3">
+        <v>60</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:9">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-165</v>
+      </c>
+      <c r="F23" s="3">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:9">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>180</v>
+      </c>
+      <c r="F24" s="3">
+        <v>60</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:9">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-180</v>
+      </c>
+      <c r="F25" s="3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>170</v>
+      </c>
+      <c r="F28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-140</v>
+      </c>
+      <c r="F29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>101</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1050,19 +2813,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1070,17 +2833,17 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11">
         <v>7.2</v>
       </c>
       <c r="F2" t="s">
@@ -1094,13 +2857,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D21" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1114,19 +2877,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1134,91 +2897,20 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11">
         <v>2.4</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.775" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:7">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1232,33 +2924,118 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1269,18 +3046,361 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="10"/>
       <c r="E2" s="6">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:8">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="34" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="6">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/test_data/mycobot_280.xlsx
+++ b/test_data/mycobot_280.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22188" windowHeight="10500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
@@ -1035,18 +1035,18 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1103,14 +1103,14 @@
       <selection activeCell="E30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1167,15 +1167,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.775" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="20.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:7">
@@ -1201,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:7">
+    <row r="2" ht="28.8" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1234,18 +1234,18 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="5" max="5" width="14.775" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.775" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="30.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/test_data/mycobot_280.xlsx
+++ b/test_data/mycobot_280.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
     <sheet name="get_basic_version" sheetId="2" r:id="rId2"/>
     <sheet name="get_angles" sheetId="3" r:id="rId3"/>
     <sheet name="get_modify_version" sheetId="4" r:id="rId4"/>
+    <sheet name="clear_queue" sheetId="5" r:id="rId5"/>
+    <sheet name="get_error_information" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +83,18 @@
   </si>
   <si>
     <t>get_modify_version</t>
+  </si>
+  <si>
+    <t>清空队列数据</t>
+  </si>
+  <si>
+    <t>clear_queue</t>
+  </si>
+  <si>
+    <t>获取报错信息</t>
+  </si>
+  <si>
+    <t>getErrorInformation</t>
   </si>
 </sst>
 </file>
@@ -702,22 +716,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1036,33 +1050,33 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1070,18 +1084,18 @@
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="7">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1105,28 +1119,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1134,16 +1148,16 @@
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="7">
         <v>2.4</v>
       </c>
@@ -1169,32 +1183,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="20.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -1202,17 +1216,17 @@
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="7">
@@ -1234,34 +1248,34 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="30.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1269,18 +1283,142 @@
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="20.2314814814815" customWidth="1"/>
+    <col min="4" max="4" width="15.2407407407407" customWidth="1"/>
+    <col min="5" max="5" width="35.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="48.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="33.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="37.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="35.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="39.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="52" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/test_data/mycobot_280.xlsx
+++ b/test_data/mycobot_280.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="10500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="get_modify_version" sheetId="4" r:id="rId4"/>
     <sheet name="clear_queue" sheetId="5" r:id="rId5"/>
     <sheet name="get_error_information" sheetId="6" r:id="rId6"/>
+    <sheet name="clear_error_information" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +96,18 @@
   </si>
   <si>
     <t>getErrorInformation</t>
+  </si>
+  <si>
+    <t>获取4关节超限报错信息</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>清除报错信息</t>
+  </si>
+  <si>
+    <t>clear_error_information</t>
   </si>
 </sst>
 </file>
@@ -711,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +739,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,11 +1074,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1094,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>7.3</v>
       </c>
       <c r="F2" t="s">
@@ -1119,11 +1138,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1158,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>2.4</v>
       </c>
       <c r="F2" t="s">
@@ -1183,12 +1202,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="20.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7777777777778" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1229,7 +1248,7 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>2.4</v>
       </c>
       <c r="G2" t="s">
@@ -1254,11 +1273,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.2222222222222" style="7" customWidth="1"/>
     <col min="2" max="2" width="26.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="30.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.7777777777778" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,17 +1390,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="33.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="37.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.5648148148148" customWidth="1"/>
     <col min="5" max="5" width="35.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="39.6666666666667" customWidth="1"/>
   </cols>
@@ -1424,6 +1443,84 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="31.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="26.4444444444444" customWidth="1"/>
+    <col min="4" max="5" width="15.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
